--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD9A5F-B5C1-412A-A2BB-1BEBDC99F966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E4B8B1-4E3C-4524-9DEF-AFD4AE857BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>NGC-3475/T1756/T1761</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2642/T2643/T2644</t>
   </si>
 </sst>
 </file>
@@ -512,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +724,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,4 +819,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25875ECD-FBC5-435E-860B-8FFDEC445D3F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E4B8B1-4E3C-4524-9DEF-AFD4AE857BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED1386-9308-4B04-A1F3-ADA63F6110A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>NGC-3476/T2642/T2643/T2644</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2435/T2436</t>
   </si>
 </sst>
 </file>
@@ -622,7 +629,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25875ECD-FBC5-435E-860B-8FFDEC445D3F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -921,4 +928,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2794E521-3B86-45BA-A88D-CD6CB42F1D7C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED1386-9308-4B04-A1F3-ADA63F6110A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528B4A1-EBAF-4781-8026-C7C77A704503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>NGC-3479/T2435/T2436</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3177/T3176/T3179/T3178</t>
   </si>
 </sst>
 </file>
@@ -934,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2794E521-3B86-45BA-A88D-CD6CB42F1D7C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,4 +1037,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5B091-6F56-440C-BEB6-87CCA2015B18}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528B4A1-EBAF-4781-8026-C7C77A704503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B31DC-7985-4481-8F44-CCDEB78ADB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>NGC-2930/T3177/T3176/T3179/T3178</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2219/T2221/T2223/T2224 </t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE5B091-6F56-440C-BEB6-87CCA2015B18}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,4 +1146,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9900F23-E9E7-426F-A51E-5B21F11EF5FB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B31DC-7985-4481-8F44-CCDEB78ADB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C71755-C32E-4D60-9871-FFF26D4CC4D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3145/T2219/T2221/T2223/T2224 </t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3103/T2045/T2062/T2065/T2066 </t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9900F23-E9E7-426F-A51E-5B21F11EF5FB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,4 +1255,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A989B-15F6-4481-85E3-683931919546}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C71755-C32E-4D60-9871-FFF26D4CC4D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C2DA1-ADAC-44EB-9BC6-E9B32636113A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -123,7 +124,13 @@
     <t>Spain Market</t>
   </si>
   <si>
-    <t xml:space="preserve">NGC-3103/T2045/T2062/T2065/T2066 </t>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2045/T2062/T2065/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3191/T3310/T3325/T2065 </t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A989B-15F6-4481-85E3-683931919546}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1314,108 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3638F7A1-953A-4858-966E-9154A29A73FE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C2DA1-ADAC-44EB-9BC6-E9B32636113A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A4754-D96A-45AB-B2B9-6AF1DF161AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3191/T3310/T3325/T2065 </t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3139/T2474/T2473/T2476 </t>
   </si>
 </sst>
 </file>
@@ -652,6 +659,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C522F-AEE0-4DE4-9408-886413FC6136}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D46FC-4930-4BB4-BBC9-D454EC5BF909}">
   <dimension ref="A1:D11"/>
@@ -1369,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3638F7A1-953A-4858-966E-9154A29A73FE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A4754-D96A-45AB-B2B9-6AF1DF161AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC5DDD-D15F-49A6-8BE5-68F0B9AEC12B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3139/T2474/T2473/T2476 </t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3205/T3204/T3206</t>
   </si>
 </sst>
 </file>
@@ -663,6 +670,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C522F-AEE0-4DE4-9408-886413FC6136}">
   <dimension ref="A1:D11"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882060C8-680F-4AE4-B1A6-301F28F950F5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -687,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -709,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC5DDD-D15F-49A6-8BE5-68F0B9AEC12B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE3390-63E8-472F-9324-AFF3157AA2F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +148,27 @@
   </si>
   <si>
     <t>NGC-4119/T3205/T3204/T3206</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2188/T2189/T2191</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2295</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2783</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>Fire Brigade Panel</t>
   </si>
 </sst>
 </file>
@@ -771,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882060C8-680F-4AE4-B1A6-301F28F950F5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -818,6 +842,312 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1486A2-4446-42CE-BA9B-8AEF78745E73}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6864B9F2-61B7-4D0B-8131-12E82841F38D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FA068F-58A5-4805-993D-1517A2E16A16}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE3390-63E8-472F-9324-AFF3157AA2F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9EB79-1FED-4AE8-82F9-28B1C802E664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -169,6 +172,24 @@
   </si>
   <si>
     <t>Fire Brigade Panel</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2978</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6864B9F2-61B7-4D0B-8131-12E82841F38D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1198,6 +1219,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D4BAA6-AD50-4028-B883-E0C077FF2EF0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8205DA9-CF25-402A-82F6-D30DF750A16D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828E3EF2-0FDB-4093-AA98-ED502CF48005}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D46FC-4930-4BB4-BBC9-D454EC5BF909}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9EB79-1FED-4AE8-82F9-28B1C802E664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453181DC-7998-47DD-AEFD-54D36885E5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +192,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3071/T3070/T3072</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3036/T3037/T3038</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828E3EF2-0FDB-4093-AA98-ED502CF48005}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1479,6 +1493,208 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0F3FE3-6771-4A15-B650-DCB019952552}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EDE40B-B7FF-4B1F-982F-84071CBB78A5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453181DC-7998-47DD-AEFD-54D36885E5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C0705-3CE2-4A02-BA7F-2B97F13ED105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -204,6 +205,15 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>GMPIM</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3365/T3366/T3364</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0F3FE3-6771-4A15-B650-DCB019952552}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1840,6 +1850,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A0168B-0965-4E52-8688-0F748FF7B0BC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E096EBD-0F0F-45A1-8698-14BFBAD7DB3A}">
   <dimension ref="A1:D11"/>
